--- a/storage/aruskas-keuangan-2022.xlsx
+++ b/storage/aruskas-keuangan-2022.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="52">
   <si>
     <t>I. AKTIVITAS OPERASI</t>
   </si>
@@ -41,10 +41,10 @@
     <t>SD DES 2021</t>
   </si>
   <si>
-    <t>Jul 2022</t>
-  </si>
-  <si>
-    <t>SD Jul 2022</t>
+    <t>Aug 2022</t>
+  </si>
+  <si>
+    <t>SD Aug 2022</t>
   </si>
   <si>
     <t>1. Pengembalian Pinjaman Mitra Binaan</t>
@@ -102,6 +102,75 @@
   </si>
   <si>
     <t>KAS DAN SETARA KAS PADA AKHIR TAHUN</t>
+  </si>
+  <si>
+    <t>187,397,670</t>
+  </si>
+  <si>
+    <t>2,267,959,574</t>
+  </si>
+  <si>
+    <t>123,312,144</t>
+  </si>
+  <si>
+    <t>13,658,000</t>
+  </si>
+  <si>
+    <t>147,692,944</t>
+  </si>
+  <si>
+    <t>453,623</t>
+  </si>
+  <si>
+    <t>7,280,735</t>
+  </si>
+  <si>
+    <t>21,678,300</t>
+  </si>
+  <si>
+    <t>-265,000,000</t>
+  </si>
+  <si>
+    <t>-2,255,000,000</t>
+  </si>
+  <si>
+    <t>570,000,000</t>
+  </si>
+  <si>
+    <t>-317,225</t>
+  </si>
+  <si>
+    <t>-4,176,647</t>
+  </si>
+  <si>
+    <t>-910,000</t>
+  </si>
+  <si>
+    <t>-63,807,932</t>
+  </si>
+  <si>
+    <t>184,524,906</t>
+  </si>
+  <si>
+    <t>390,508,462</t>
+  </si>
+  <si>
+    <t>142,175,624</t>
+  </si>
+  <si>
+    <t>658,493,278</t>
+  </si>
+  <si>
+    <t>701,398,798</t>
+  </si>
+  <si>
+    <t>326,700,530</t>
+  </si>
+  <si>
+    <t>1,228,493,278</t>
+  </si>
+  <si>
+    <t>1,271,398,798</t>
   </si>
 </sst>
 </file>
@@ -519,17 +588,17 @@
       <c r="A6" t="s">
         <v>10</v>
       </c>
-      <c r="B6">
-        <v>187397670.0</v>
-      </c>
-      <c r="C6">
-        <v>2267959574.0</v>
-      </c>
-      <c r="D6">
-        <v>194074503.0</v>
+      <c r="B6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" t="s">
+        <v>31</v>
       </c>
       <c r="E6">
-        <v>1448112333.0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -537,50 +606,50 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C7">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D7">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>265695176.0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>12</v>
       </c>
-      <c r="B8">
-        <v>13658000.0</v>
-      </c>
-      <c r="C8">
-        <v>147692944.0</v>
+      <c r="B8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" t="s">
+        <v>33</v>
       </c>
       <c r="D8">
-        <v>15279664.0</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>122476188.0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
         <v>13</v>
       </c>
-      <c r="B9">
-        <v>453623.0</v>
-      </c>
-      <c r="C9">
-        <v>7280735.0</v>
+      <c r="B9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" t="s">
+        <v>35</v>
       </c>
       <c r="D9">
-        <v>487410.46</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>4438383.22</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -588,16 +657,16 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>0.0</v>
-      </c>
-      <c r="C10">
-        <v>21678300.0</v>
+        <v>0</v>
+      </c>
+      <c r="C10" t="s">
+        <v>36</v>
       </c>
       <c r="D10">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E10">
-        <v>1000000.0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -609,17 +678,17 @@
       <c r="A12" t="s">
         <v>15</v>
       </c>
-      <c r="B12">
-        <v>-265000000.0</v>
-      </c>
-      <c r="C12">
-        <v>-2255000000.0</v>
-      </c>
-      <c r="D12">
-        <v>0.0</v>
+      <c r="B12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" t="s">
+        <v>39</v>
       </c>
       <c r="E12">
-        <v>-675000000.0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -627,16 +696,16 @@
         <v>16</v>
       </c>
       <c r="B13">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C13">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D13">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E13">
-        <v>0.0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -644,16 +713,16 @@
         <v>17</v>
       </c>
       <c r="B14">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C14">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D14">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E14">
-        <v>0.0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -661,16 +730,16 @@
         <v>18</v>
       </c>
       <c r="B15">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C15">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D15">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E15">
-        <v>0.0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -678,33 +747,33 @@
         <v>19</v>
       </c>
       <c r="B16">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C16">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D16">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E16">
-        <v>0.0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
         <v>20</v>
       </c>
-      <c r="B17">
-        <v>-317225.0</v>
-      </c>
-      <c r="C17">
-        <v>-4176647.0</v>
+      <c r="B17" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" t="s">
+        <v>41</v>
       </c>
       <c r="D17">
-        <v>-323982.09</v>
+        <v>0</v>
       </c>
       <c r="E17">
-        <v>-2699676.24</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -712,16 +781,16 @@
         <v>21</v>
       </c>
       <c r="B18">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C18">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D18">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E18">
-        <v>0.0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -729,33 +798,33 @@
         <v>22</v>
       </c>
       <c r="B19">
-        <v>0.0</v>
-      </c>
-      <c r="C19">
-        <v>-910000.0</v>
+        <v>0</v>
+      </c>
+      <c r="C19" t="s">
+        <v>42</v>
       </c>
       <c r="D19">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E19">
-        <v>0.0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
         <v>23</v>
       </c>
-      <c r="B20">
-        <v>-63807932.0</v>
-      </c>
-      <c r="C20">
-        <v>184524906.0</v>
-      </c>
-      <c r="D20">
-        <v>209517595.37</v>
-      </c>
-      <c r="E20">
-        <v>1164022403.98</v>
+      <c r="B20" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" t="s">
+        <v>44</v>
+      </c>
+      <c r="D20" t="s">
+        <v>39</v>
+      </c>
+      <c r="E20" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -773,16 +842,16 @@
         <v>24</v>
       </c>
       <c r="B23">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C23">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D23">
-        <v>40478000.0</v>
+        <v>0</v>
       </c>
       <c r="E23">
-        <v>80956000.0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -790,67 +859,67 @@
         <v>25</v>
       </c>
       <c r="B24">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C24">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D24">
-        <v>40478000.0</v>
+        <v>0</v>
       </c>
       <c r="E24">
-        <v>80956000.0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
         <v>26</v>
       </c>
-      <c r="B25">
-        <v>-63807932.0</v>
-      </c>
-      <c r="C25">
-        <v>184524906.0</v>
-      </c>
-      <c r="D25">
-        <v>249995595.37</v>
-      </c>
-      <c r="E25">
-        <v>1244978403.98</v>
+      <c r="B25" t="s">
+        <v>43</v>
+      </c>
+      <c r="C25" t="s">
+        <v>44</v>
+      </c>
+      <c r="D25" t="s">
+        <v>39</v>
+      </c>
+      <c r="E25" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
         <v>27</v>
       </c>
-      <c r="B26">
-        <v>390508462.0</v>
-      </c>
-      <c r="C26">
-        <v>142175624.0</v>
-      </c>
-      <c r="D26">
-        <v>1321683338.61</v>
-      </c>
-      <c r="E26">
-        <v>1800975375.85</v>
+      <c r="B26" t="s">
+        <v>45</v>
+      </c>
+      <c r="C26" t="s">
+        <v>46</v>
+      </c>
+      <c r="D26" t="s">
+        <v>47</v>
+      </c>
+      <c r="E26" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" t="s">
         <v>28</v>
       </c>
-      <c r="B27">
-        <v>326700530.0</v>
-      </c>
-      <c r="C27">
-        <v>326700530.0</v>
-      </c>
-      <c r="D27">
-        <v>1571678933.98</v>
-      </c>
-      <c r="E27">
-        <v>3045953779.83</v>
+      <c r="B27" t="s">
+        <v>49</v>
+      </c>
+      <c r="C27" t="s">
+        <v>49</v>
+      </c>
+      <c r="D27" t="s">
+        <v>50</v>
+      </c>
+      <c r="E27" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/storage/aruskas-keuangan-2022.xlsx
+++ b/storage/aruskas-keuangan-2022.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="54">
   <si>
     <t>I. AKTIVITAS OPERASI</t>
   </si>
@@ -41,10 +41,10 @@
     <t>SD DES 2021</t>
   </si>
   <si>
-    <t>Aug 2022</t>
-  </si>
-  <si>
-    <t>SD Aug 2022</t>
+    <t>Sep 2022</t>
+  </si>
+  <si>
+    <t>SD Sep 2022</t>
   </si>
   <si>
     <t>1. Pengembalian Pinjaman Mitra Binaan</t>
@@ -110,7 +110,7 @@
     <t>2,267,959,574</t>
   </si>
   <si>
-    <t>123,312,144</t>
+    <t>141,680,583</t>
   </si>
   <si>
     <t>13,658,000</t>
@@ -134,22 +134,28 @@
     <t>-2,255,000,000</t>
   </si>
   <si>
+    <t>-317,225</t>
+  </si>
+  <si>
+    <t>-4,176,647</t>
+  </si>
+  <si>
+    <t>-910,000</t>
+  </si>
+  <si>
+    <t>-63,807,932</t>
+  </si>
+  <si>
+    <t>184,524,906</t>
+  </si>
+  <si>
     <t>570,000,000</t>
   </si>
   <si>
-    <t>-317,225</t>
-  </si>
-  <si>
-    <t>-4,176,647</t>
-  </si>
-  <si>
-    <t>-910,000</t>
-  </si>
-  <si>
-    <t>-63,807,932</t>
-  </si>
-  <si>
-    <t>184,524,906</t>
+    <t>11,867,642</t>
+  </si>
+  <si>
+    <t>581,867,642</t>
   </si>
   <si>
     <t>390,508,462</t>
@@ -158,19 +164,19 @@
     <t>142,175,624</t>
   </si>
   <si>
-    <t>658,493,278</t>
-  </si>
-  <si>
-    <t>701,398,798</t>
+    <t>756,829,644</t>
+  </si>
+  <si>
+    <t>1,458,228,442</t>
   </si>
   <si>
     <t>326,700,530</t>
   </si>
   <si>
-    <t>1,228,493,278</t>
-  </si>
-  <si>
-    <t>1,271,398,798</t>
+    <t>768,697,286</t>
+  </si>
+  <si>
+    <t>2,040,096,084</t>
   </si>
 </sst>
 </file>
@@ -684,8 +690,8 @@
       <c r="C12" t="s">
         <v>38</v>
       </c>
-      <c r="D12" t="s">
-        <v>39</v>
+      <c r="D12">
+        <v>0</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -764,10 +770,10 @@
         <v>20</v>
       </c>
       <c r="B17" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" t="s">
         <v>40</v>
-      </c>
-      <c r="C17" t="s">
-        <v>41</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -801,7 +807,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -815,16 +821,16 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" t="s">
         <v>43</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20" t="s">
         <v>44</v>
-      </c>
-      <c r="D20" t="s">
-        <v>39</v>
-      </c>
-      <c r="E20" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -876,16 +882,16 @@
         <v>26</v>
       </c>
       <c r="B25" t="s">
+        <v>42</v>
+      </c>
+      <c r="C25" t="s">
         <v>43</v>
       </c>
-      <c r="C25" t="s">
-        <v>44</v>
-      </c>
       <c r="D25" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="E25" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -893,16 +899,16 @@
         <v>27</v>
       </c>
       <c r="B26" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C26" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D26" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E26" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -910,16 +916,16 @@
         <v>28</v>
       </c>
       <c r="B27" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C27" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D27" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E27" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/storage/aruskas-keuangan-2022.xlsx
+++ b/storage/aruskas-keuangan-2022.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="61">
   <si>
     <t>I. AKTIVITAS OPERASI</t>
   </si>
@@ -41,10 +41,10 @@
     <t>SD DES 2021</t>
   </si>
   <si>
-    <t>Sep 2022</t>
-  </si>
-  <si>
-    <t>SD Sep 2022</t>
+    <t xml:space="preserve"> 2022</t>
+  </si>
+  <si>
+    <t>SD  2022</t>
   </si>
   <si>
     <t>1. Pengembalian Pinjaman Mitra Binaan</t>
@@ -110,7 +110,10 @@
     <t>2,267,959,574</t>
   </si>
   <si>
-    <t>141,680,583</t>
+    <t>194,139,820</t>
+  </si>
+  <si>
+    <t>1,059,963,327</t>
   </si>
   <si>
     <t>13,658,000</t>
@@ -119,27 +122,54 @@
     <t>147,692,944</t>
   </si>
   <si>
+    <t>15,142,700</t>
+  </si>
+  <si>
+    <t>91,916,860</t>
+  </si>
+  <si>
     <t>453,623</t>
   </si>
   <si>
     <t>7,280,735</t>
   </si>
   <si>
+    <t>741,748</t>
+  </si>
+  <si>
+    <t>3,463,562</t>
+  </si>
+  <si>
     <t>21,678,300</t>
   </si>
   <si>
+    <t>1,000,000</t>
+  </si>
+  <si>
     <t>-265,000,000</t>
   </si>
   <si>
     <t>-2,255,000,000</t>
   </si>
   <si>
+    <t>-315,000,000</t>
+  </si>
+  <si>
+    <t>-675,000,000</t>
+  </si>
+  <si>
     <t>-317,225</t>
   </si>
   <si>
     <t>-4,176,647</t>
   </si>
   <si>
+    <t>-374,849</t>
+  </si>
+  <si>
+    <t>-2,051,712</t>
+  </si>
+  <si>
     <t>-910,000</t>
   </si>
   <si>
@@ -149,13 +179,10 @@
     <t>184,524,906</t>
   </si>
   <si>
-    <t>570,000,000</t>
-  </si>
-  <si>
-    <t>11,867,642</t>
-  </si>
-  <si>
-    <t>581,867,642</t>
+    <t>-104,350,581</t>
+  </si>
+  <si>
+    <t>479,292,037</t>
   </si>
   <si>
     <t>390,508,462</t>
@@ -164,19 +191,13 @@
     <t>142,175,624</t>
   </si>
   <si>
-    <t>756,829,644</t>
-  </si>
-  <si>
-    <t>1,458,228,442</t>
+    <t>910,343,148</t>
   </si>
   <si>
     <t>326,700,530</t>
   </si>
   <si>
-    <t>768,697,286</t>
-  </si>
-  <si>
-    <t>2,040,096,084</t>
+    <t>805,992,567</t>
   </si>
 </sst>
 </file>
@@ -603,8 +624,8 @@
       <c r="D6" t="s">
         <v>31</v>
       </c>
-      <c r="E6">
-        <v>0</v>
+      <c r="E6" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -629,16 +650,16 @@
         <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C8" t="s">
-        <v>33</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
+        <v>34</v>
+      </c>
+      <c r="D8" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -646,16 +667,16 @@
         <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C9" t="s">
-        <v>35</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
+        <v>38</v>
+      </c>
+      <c r="D9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -666,13 +687,13 @@
         <v>0</v>
       </c>
       <c r="C10" t="s">
-        <v>36</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
+        <v>41</v>
+      </c>
+      <c r="D10" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -685,16 +706,16 @@
         <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="C12" t="s">
-        <v>38</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
+        <v>44</v>
+      </c>
+      <c r="D12" t="s">
+        <v>45</v>
+      </c>
+      <c r="E12" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -770,16 +791,16 @@
         <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="C17" t="s">
-        <v>40</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
+        <v>48</v>
+      </c>
+      <c r="D17" t="s">
+        <v>49</v>
+      </c>
+      <c r="E17" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -807,7 +828,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -821,16 +842,16 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="C20" t="s">
-        <v>43</v>
-      </c>
-      <c r="D20">
-        <v>0</v>
+        <v>53</v>
+      </c>
+      <c r="D20" t="s">
+        <v>54</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -882,16 +903,16 @@
         <v>26</v>
       </c>
       <c r="B25" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="C25" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="D25" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="E25" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -899,16 +920,16 @@
         <v>27</v>
       </c>
       <c r="B26" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="C26" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="D26" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="E26" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -916,16 +937,16 @@
         <v>28</v>
       </c>
       <c r="B27" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="C27" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="D27" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="E27" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
